--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_2.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_2.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,403 +440,3125 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>问题描述：用户在查看信息、回复帖子或回复回帖时，无法正确使用“@我的”和“赞我的”功能。</t>
+          <t>在多次请求加入好友时，当多次提交申请，则系统自动‘’发送好友请求已经存在‘’，还没有加好友也可以进行聊天。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>多次 请求 加入 好友 多次 提交 申请 系统 自动 ‘ ’ 发送 好友 请求 ‘ ’ 没有 加 好友 进行 聊天</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>该软件在邮箱注册过程中存在严重的界面缺陷。当用户进入步骤2，尝试使用带有@符号的邮箱地址进行注册时，输入框似乎被设计为限制输入内容，导致无法键入任何字符，包括“@”符号及其后的部分。这显然阻碍了用户通过邮箱完成注册流程，严重影响了用户体验和软件的功能性。</t>
+          <t>在群消息助手的界面中，当同一用户的同一个群有多条申请时，系统并没有以最新的或最后一条申请为准。相反，它似乎选择了最先出现的申请并忽略了其他的。具体来说，用户的操作只影响了第三条申请，而其他申请则被直接忽略了，这与预期的功能不符，可能导致用户无法正确接收到他们希望加入的群。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>群 消息 助手 界面 同一 同一个 群有 多条 申请 系统 没有 最新 最后 一条 申请 为准 相反 选择 最先 出现 申请 忽略 具体来说 第三条 申请 申请 忽略 预期 不符 无法 正确 接收 希望 加入 群</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>这个问题描述了一个软件的bug，具体表现为用户在“最新动态”和个人动态里可以看到他们发的帖子，但是无法转发这些帖子。无论是别人发的还是用户自己发的帖子，都只能评论和点赞，不能进行转发或收藏。这限制了用户分享和保存优质内容的能力，可能会影响用户的使用体验。</t>
+          <t>在申请加入群聊的过程中，尽管设置了必须填写验证信息，但用户仍然可以在不填写申请理由的情况下提交申请。这导致了验证信息的要求没有得到应有的执行，从而可能允许不符合要求的用户进入群聊。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>申请加入 群聊 过程 设置 必须 填写 验证 信息 仍然 填写 申请理由 情况 提交 申请 验证 信息 要求 没有 得到 应有 执行 允许 符合要求 进入 群聊</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>发表帖子或者查看最新帖子时没有分享到其他其他软件的功能，若发现有用的信息只能注册后才能查看，非此软件注册用户无法获得好友在此软件分享的有用信息。</t>
+          <t>在群申请界面中，当用户填写完申请内容并点击保存后，系统并未给出任何反馈信息。用户无法得知他们的提交是否已经成功。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>群 申请 界面 填写 完 申请 内容 点击 保存 系统 并未 给出 反馈 信息 无法 得知 提交 是否 成功</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>在杰迷吧的帖子评论区进行互动时，用户反馈了以下问题：首先，当有新消息时，右上角的消息盒子没有显示红色小点作为提示，使得用户无法及时得知新的信息更新。其次，当用户对自己发的帖子进行评论时，系统错误地将该评论标记为“楼主评论”，这与正常的评论行为不符。最后，当用户返回到帖子的最新页面时，他们刚才发表的评论并没有被显示出来，同时评论的刷新速度较慢，需要点击评论框才能看到之前发表的评论内容。这些问题可能会影响用户的使用体验，降低他们在杰迷吧上的活跃度和满意度。</t>
+          <t>该软件在处理添加群申请时存在逻辑错误。当同一用户对同一个群的多条申请进行测试时，审批结果并未按照功能描述中的要求，即以最后一条审批结果为准，而是任意选择其中一条作为最终结果。具体地，如果任何一条申请被拒绝，系统会错误地将全部申请都判定为拒绝，这与预期的功能行为不符。这可能会导致用户体验不佳，并可能影响群组管理的正常运行。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>处理 添加 群 申请 逻辑 错误 同一 同一个 群 多条 申请 进行 审批 并未 要求 即以 最后 一条 审批 为准 任意 选择 一条 最终 具体 一条 申请 拒绝 系统 错误 申请 判定 拒绝 预期 行为 不符 不佳 群组 管理 正常 运行</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>在杰迷吧-消息盒子-最新中，当用户查看已经评论的帖子时，显示的信息不完整。具体来说，每层楼主的评论信息只显示了评论是多长时间以前进行的，但没有提供具体的日期和时间。此外，当用户点击“更多”查看其他评论时，也没有展示回复的具体时间。更为奇怪的是，其他用户对这层楼主的回复只能进行评论，而不能进行点赞等其他互动操作。</t>
+          <t>对于用户的多次入群申请，一旦审批某一条，其他申请自动同意，并不能再审批其他申请，没有以最新申请为准，与描述不相符合</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>多次 入群 申请 审批 一条 申请 自动 同意 不能 审批 申请 没有 最新 申请 为准 相符合</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>该注册界面的输入框仅支持数字，无法接受英文字符。这限制了用户的输入选项，可能导致用户体验不佳，并可能影响系统的兼容性和功能性。</t>
+          <t>问题描述：在群聊助手应用中，当用户尝试通过验证消息加入群组时，系统没有提供明确的反馈信息告知用户其申请状态。这导致用户无法确定他们的请求是否被接受或拒绝。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>群聊 助手 应用 验证 消息 加入 群组 系统 没有 提供 明确 反馈 信息 告知 申请 状态 无法 确定 请求 是否 接受 拒绝</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该软件存在一个界面显示的bug。在JayMe首页进入Jay迷吧后，用户在查看有关惠州站演唱会的帖子详情时，点击评论图标进入评论输入框并尝试输入“我要”，但当用户不发送此评论信息，而是直接向上滑动帖子信息时，发现输入框中的评论信息已被清空，这不符合常规的用户交互逻辑，可能导致用户的信息丢失或误解。</t>
+          <t>加入群-申请加群理由发送后该群群主接受不到申请</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>加入 群 - 申请 加群 理由 发送 群 群主 接受 不到 申请</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>该界面的评论信息刷新机制存在问题。当用户发送评论后，系统并未正确更新帖子的位置和楼层信息，导致新发布的帖子位置异常，且与实际楼层不符。在截图1中，新发布的帖子位于32楼，而在截图2中，该帖子被移至81楼。此外，当用户向下滑动屏幕刷新界面时，帖子的刷新方式不正确，应该是自动移到最末端并显示为81楼，而不是回到原位再显示为32楼。这可能对用户造成混淆，影响用户体验。</t>
+          <t>该软件在处理群申请加入请求时存在一个bug。当用户提交多个相同的申请后，如果选择其中一条进行拒绝或同意操作，会导致其他所有相同用户的请求状态同时被改变，无法单独处理每个用户的请求。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>处理 群 申请加入 请求 提交 多个 相同 申请 选择 一条 进行 拒绝 同意 相同 请求 状态 改变 无法 单独 处理 每个 请求</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>在登录JayMe并进入Jay迷吧最新帖子界面后，点击关于惠州站演唱会的帖子下的评论图标，进入帖子详情界面。在这里，可以输入评论信息并点击发送按钮。然而，尽管显示已成功发送评论到32楼，但没有出现“成功评论”的提示信息。这与测试单独评论某个跟帖用户发布的信息时出现的评论成功提示信息不符。</t>
+          <t>文档中说若同一用户的同一个群有多条申请，以最后一条的审批结果为准，但实际上，不管对那一条请求作出同意或拒绝，其他申请条件会执行同样的操作</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>文档 中说 同一 同一个 群有 多条 申请 最后 一条 审批 为准 实际上 一条 请求 作出 同意 拒绝 申请 执行 同样</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>该软件在用户尝试进行邮箱注册时存在一个明显的功能缺陷。具体问题为：当用户输入带有@符号的邮箱地址时，系统未能正确识别并提示相关的邮箱格式，也没有显示@符号，导致用户无法正确地输入邮箱地址。这给用户注册过程带来了不便，可能会影响用户体验和软件的整体满意度。</t>
+          <t>该软件在处理用户多次申请加入同一个群组时，存在功能缺陷。管理员收到的提醒信息不是以最后一条通知的处理结果为准，而是多次重复收到同一个人的申请。这导致了不必要的操作和资源浪费，影响了工作效率。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>处理 多次 申请加入 同一个 群组 缺陷 管理员 收到 提醒 信息 最后 一条 通知 处理结果 为准 多次重复 收到 同一个 申请 不必要 资源 浪费 工作效率</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>在注册界面，提醒用户可以选择手机注册或者邮箱注册，但是只能选择手机注册，邮箱注册功能没有实现。</t>
+          <t>在群消息助手的界面中，用户在审批入群申请时遇到了重复处理的问题。具体地，同一用户多次提交了入群申请，而当前的审批逻辑没有正确处理这种情况，导致该用户的多次申请被同时视为有效。这可能会导致群管理混乱和信息处理效率低下。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>群 消息 助手 界面 审批 入群 申请 遇到 重复 处理 具体 同一 多次 提交 入群 申请 当前 审批 逻辑 没有 正确处理 情况 多次 申请 视为 有效 群 管理混乱 信息处理 效率 低下</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>首次使用进行注册（功能不完整）
-1.注册框只能输入11位数字满足手机号注册
-2.无法使用邮箱进行注册，例如无法输入@和字母</t>
+          <t>群主设置好管理员，被设置的管理员接受不到相应的消息通知。申请入群时，管理员同意之后，群主同时收到申请消息，点击同意，显示“同意入群申请失败”，申请重复。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>群主 设置 管理员 设置 管理员 接受 不到 相应 消息 通知 申请 入 群时 管理员 同意 之后 群主 收到 申请 消息 点击 同意 同意 入群 申请 失败 申请 重复</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>在进入app进行注册账号时，系统提示允许使用手机号或邮箱注册。然而，当尝试使用邮箱进行注册时，发现无法完成此操作。键盘仅能切换到数字输入模式，并且在整个注册过程中，用户只能输入十一个数字。这种限制使得邮箱注册功能无法正常使用。</t>
+          <t>该软件的群助手功能存在缺陷。当用户拒绝他人的加群申请后，申请消息被记录到群助手中，但并未显示处理结果。拒绝或接受的具体信息并没有在界面上展示，只简单地告知用户有人申请加群，这导致功能的不完整性。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>群 助手 缺陷 拒绝 加群 申请 申请 消息 记录 群 助手 并未 处理结果 拒绝 接受 具体 信息 没有 界面 展示 简单 告知 有人 申请 加群 完整性</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>*必须选择至少一个好友才可以创建群聊，单独自己不可以；
-*成员退出群聊，群主收不到提醒；
-*注册时，不可以用邮箱注册，不可以输入数字以外的其他字符；</t>
+          <t>进入聊天界面后，该界面有群助手消息显示好友的加入群申请信息，点击该消息，显示了5条加入同一个群的申请，见截图2；点击第一条申请的同意按钮，剩下的四条记录全部默认同意，见截图3，这跟需求不符，需求要求以最后一条申请为准。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>进入 聊天 界面 界面 有群 助手 消息 好友 加入 群 申请 信息 点击 消息 条 加入 同一个 群 申请 见 截图 点击 第一条 申请 同意 按钮 剩下 四条 记录 默认 同意 见 截图 需求 不符 需求 要求 最后 一条 申请 为准</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>在聊天记录中，当群公告输入为空格时，该公告的内容无法显示，导致用户无法查看到正常的群公告信息。</t>
+          <t>该软件在拒绝用户申请后，没有正确更新界面以显示“已拒绝”的状态。当前界面仍展示着用户的申请信息，这可能会误导用户认为他们的申请还在处理中，而实际上已经被拒绝了。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>拒绝 申请 没有 正确 更新 界面 拒绝 状态 当前 界面 展示 申请 信息 误导 认为 申请 处理 实际上 拒绝</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>输入群公告信息，提示创建公告成功，在聊天页面没有显示</t>
+          <t>在软件界面中，当用户尝试批准一条申请消息时，系统错误地同时批准了多条申请消息。这可能导致用户收到他们未请求的批准通知，从而引起混淆和可能的误操作。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>软件 界面 批准 一条 申请 消息 系统 错误 批准 多条 申请 消息 收到 未 请求 批准 通知 引起 混淆 误操作</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>注册杰迷吧的时候，提示可以用手机和邮箱注册，可是实际上邮箱并不能注册</t>
+          <t>若同一用户的同一个群有多条申请，应以最后一条的审批结果为准，但群主批准第一条申请消息时，后面跟着的申请消息以第一条申请消息为准了。图一批准第一条消息记录，结果三条一起被批准，没有以最后一条为准</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>同一 同一个 群有 多条 申请 应 最后 一条 审批 为准 群主 批准 第一条 申请 消息 后面 跟着 申请 消息 第一条 申请 消息 为准 图一 批准 第一条 消息 记录 三条 一起 批准 没有 最后 一条 为准</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>写的有邮箱注册，但是无邮箱特殊符号@</t>
+          <t>在群管理功能中，当其他用户提交多条入群申请时，审批结果并没有反映出最后一次的审批决定。具体来说，尽管最后一次入群申请附带的信息为“啊啊啊吧”，但系统的显示并未更新至这一信息。这导致了管理界面与实际审批状态之间的不一致，可能会给管理者带来混淆，影响其对入群申请的处理效率和准确性。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>群 管理 提交 多条 入群 申请 审批 没有 反映 出 最后 一次 审批 决定 具体来说 最后 一次 入群 申请 附带 信息 啊啊啊 系统 并未 更新 信息 管理 界面 审批 状态 之间 一致 管理者 带来 混淆 其对入 群 申请 处理 效率 准确性</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>群公告只能保留当前的内容，历史群公告不能保存。严重影响用户体验。下图是当前一条群公告。</t>
+          <t>该软件界面显示了多条群消息申请记录，但系统似乎无法正确识别和处理这些申请。特别是，当系统需要根据测试需求文档来决定审批哪一条申请时，它错误地以多条申请中的任一审批记录为准。这可能导致了与测试需求文档不一致的结果，从而可能影响到整个系统的功能性和准确性。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>界面显示 多条 群 消息 申请 记录 系统 无法 正确 识别 处理 申请 特别 系统 需求 文档 决定 审批 哪一条 申请 错误 地以 多条 申请 任一 审批 记录 为准 需求 文档 一致 整个 系统 功能性 准确性</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>在APP首次进入时，用户会看到周杰伦的欢迎视频。当视频播放完毕后，系统应引导用户进入“注册”页面，并提示用户输入电话号码或邮箱。但在实际操作中，该输入框仅允许数字输入，无法使用字母和特殊符号进行输入。这导致用户无法正常输入邮箱地址，只能选择使用手机号进行注册。</t>
+          <t>申请加入群遭拒绝后，再次申请，有提示消息，但没有声音提示。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>申请加入 群遭 拒绝 再次 申请 提示 消息 没有 声音 提示</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>当使用手机号注册新的用户账号时，没有密码可见的小眼睛，输入密码时只有小圆点，无法查看到输入的具体密码。这样很容易使得用户注册时不小心打错密码的情况下不知情。</t>
+          <t>该软件在处理单用户多个申请加入群聊的功能时，存在逻辑错误。根据功能描述，应该以最后一个申请作为判断依据来确定用户是否被接受或拒绝。然而，软件实际执行的是，任意一个申请就决定了用户的最终状态，这明显与功能描述不符，导致了用户体验的不一致和功能的失效。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>处理 单用户 多个 申请加入 群聊 逻辑 错误 应该 最后 申请 判断 确定 是否 接受 拒绝 软件 执行 任意 申请 决定 最终 状态 明显 不符 一致 失效</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>用户在使用手机号码注册新用户账号时，输入密码系统只提示输入一遍，而没有确认密码十用户再输一遍密码予以确认，密码的确认性不完善。</t>
+          <t>功能需求要求以最后一条的审批结果为准，但当用户申请多次时，群主接收到多次申请消息，选择接受或拒绝后，就不能再操作选择接受或拒绝，并不是以最后一条审批结果为准</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>需求 要求 最后 一条 审批 为准 申请 多次 群主 接收 多次 申请 消息 选择 接受 拒绝 不能 选择 接受 拒绝 最后 一条 审批 为准</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>注册时收到的短信验证码输入后显示短信验证码不正确，不能使用手机号注册，严重影响APP的功能体验。</t>
+          <t>在选择加为好友时，填写申请，点击确定，却提醒用户该好友不存在。用户信息发生错误。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>选择 加为好友 填写 申请 点击 确定 提醒 好友 信息 发生 错误</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>注册用户时只能使用 数字  不能出现字符如@   以及字母等</t>
+          <t>用户填写申请说明时，字符数量限制为255，有点多余</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>填写 申请 说明 字符 数量 限制 255 有点 多余</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>注册时输入不进去@，无法用邮箱进行注册</t>
+          <t>前提条件:在群消息助手中查看群的申请记录
+预期结果:申请理由应该和后面的"要不要给TA个机会"分割明显</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>前提条件 : 群 消息 助手 查看 群 申请 记录 
+ 预期 : 申请理由 应该 后面 " 不要 TA 机会 " 分割 明显</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 群公告中没有显示公告发送时间
-2 发送新的群公告时，是在原来公告基础上编辑，没有编辑新公告的选项</t>
+          <t>该软件界面显示了一个入群申请的填写界面，其中当用户尝试输入超过255个字符时，“确定”按钮变得不可点击。这导致用户无法完成入群申请的提交过程。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>界面显示 入群 申请 填写 界面 输入 超过 255 个字符 确定 按钮 变得 不可 点击 无法 完成 入群 申请 提交 过程</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>进行步骤1时，只能输入数字，无法输入字母和符号。所以无法完成注册。</t>
+          <t>问题描述：在用户界面中，当用户点击“申请加入群聊”后，系统应弹出一个提示框要求用户输入申请理由。但是在实际的操作中，无论用户点击“确定”还是“取消”，都没有出现相应的提示信息反馈，这导致用户无法得知他们的申请是否已被接受或拒绝。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>用户界面 点击 申请加入 群聊 系统 应弹 出 提示框 要求 输入 申请理由 点击 确定 取消 没有 出现 相应 提示 信息反馈 无法 得知 申请 是否 接受 拒绝</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>在软件界面中，群公告的发布功能存在限制。用户只能发布一个公告，并且无法在同一群内同时发布多个公告。当用户尝试发布新的公告时，原有的公告会被新的公告所取代，导致之前的公告信息丢失。这种设计使得群公告的管理变得不完整和不方便。</t>
+          <t>用户可以提交多次入群申请，建议在用户准备提交第二次入群申请时，提醒，你已经申请过该群了。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>提交 多次 入群 申请 建议 准备 提交 第二次 入群 申请 提醒 申请 过该 群</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>在注册页面无法使用邮箱进行注册</t>
+          <t>同一用户的在同一个群提出多条申请，管理员若是在之前几条的审批信息中拒绝他的申请加入，则在之后的几条申请信息中按同意按钮会显示同意入群失败。与需求文档中的以最后一条审批结果为准这个描述相违。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>同一 同一个 群 提出 多条 申请 管理员 之前 几条 审批 信息 拒绝 申请加入 之后 几条 申请 信息 同意 按钮 同意 入群 失败 需求 文档 最后 一条 审批 为准 相违</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>该软件在“群公告”功能的测试中出现了以下问题：
-1、当用户尝试输入超过限定的字数时，系统并未提供任何提示信息，导致用户无法正常输入。
-2、群公告的编辑和发送权限设置存在问题，目前只有群主具有编辑和发送公告的权限，而群里的其他成员则无此权限，但软件界面上并没有明确的提示信息来告知用户这一情况。
-3、群公告功能的设计存在缺陷，用户只能发送一次公告，且在删除上一次公告前，新的公告功能并未实现，这严重影响了用户的使用体验。</t>
+          <t>该软件的群申请功能存在bug。用户在申请加入某个群聊并被拒绝后，系统似乎没有阻止他们继续尝试申请，导致群主不断收到重复的申请提示，从而可能遭受持续骚扰。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>群 申请 申请加入 群聊 拒绝 系统 没有 阻止 继续 申请 群主 不断 收到 重复 申请 提示 遭受 持续 骚扰</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>新闻只能浏览(๑`･ᴗ･´๑)不能转发，点赞或评论</t>
+          <t>该bug描述的问题是在用户申请加入群组并得到群主同意后，系统并未在用户的群界面上及时提示成功信息。相反，提示信息出现在了群助手中，导致用户必须退出当前界面并返回到群助手才能看到自己是否通过了申请请求。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>申请加入 群组 得到 群主 同意 系统 并未 群 界面 及时 提示 成功 信息 相反 提示信息 出现 群 助手 必须 退出 当前 界面 返回 群 助手 看到 是否 申请 请求</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1.商城的商品没有用户评论的界面，以及详细介绍的界面。
-2 .用户进行订单提交，如果购买多个没有给出总价，用户只能自己累加金额</t>
+          <t>当用户发送加群请求后，虽然一时提示了“等待群主处理”，但是群助手里面并没有提示，以至于时间用户容易遗忘。虽然接收方收到了请求提示(图3)，但对于申请方，信息不够完备。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>发送 加群 请求 一时 提示 等待 群主 处理 群 助手 里面 没有 提示 时间 容易 遗忘 接收 方 收到 请求 提示 ( 图 ) 申请 方 信息 不够 完备</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>注册页面提示可以使用邮箱注册，但是注册的时候不能输入字母。用邮箱注册的功能不能实现。</t>
+          <t>该bug描述了一个用户接受群聊申请后的问题。具体来说，系统没有记录用户的接受行为，并且未向申请方显示加入群聊成功的确认消息，这导致了申请方的混淆和用户体验的下降。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>接受 群聊 申请 具体来说 系统 没有 记录 接受 行为 未向 申请 方 加入 群聊 成功 确认 消息 申请 方 混淆 下降</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>在发帖子的页面中，当用户尝试输入大量表情符号时，系统出现了性能问题，导致页面卡顿并最终崩溃。用户因此无法成功发布帖子。</t>
+          <t>在用户尝试搜索并加入群组时，系统发送了入群申请审批。当管理员点击拒绝按钮时，系统未提供填写拒绝理由的界面。这可能导致管理员无法区分是否之前已拒绝过相同用户的申请。如果该用户符合条件并再次申请，管理员可能会误认为这是一个陌生人的申请而再次拒绝，从而错过了给予用户第二次机会的机会。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>搜索 加入 群组 系统 发送 入群 申请 审批 管理员 点击 拒绝 按钮 系统 未 提供 填写 拒绝 理由 界面 管理员 无法 区分 是否 之前 拒绝 相同 申请 符合条件 再次 申请 管理员 误认为 陌生人 申请 再次 拒绝 错过 给予 第二次 机会 机会</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>帖子内容超过两行并没有省略的显示。</t>
-        </is>
+          <t>同意用户多条申请，以最后一次结果为准，应多次提示审批结果</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>同意 多条 申请 最后 一次 为准 应 多次 提示 审批</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B266"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>为准</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>多条</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>提交</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>这个bug描述了一个软件的显示问题，具体来说，当用户成功回复一个帖子后，显示的回帖时间顺序与实际发生的事件不符。</t>
-        </is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>在输入的电话号码或邮箱账号不正确时，系统未能提供准确的错误提醒。</t>
-        </is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4.杰伦新闻，或者咨询，或者发帖子。完全没有显示定位，通过显示周杰伦活动的定位，有利于粉丝追寻周杰伦的活动现场，方便用户使用。
-5.用户聊天群缺少一项功能。就是推荐群，比如可以推荐一些很有特色，有关杰粉主题的群，大家都可以看到，可以添加的群，加强用户之间活动性。
-6.发出去的帖子和跟贴，或者评论帖子的都没有定位。或者显示附近多少米范围内。
-8.主页应该添加杰伦旅游一框功能，针对杰伦外出旅游的攻略，或者可以给杰伦发布旅游攻略，或者其他用户发布旅游攻略。</t>
-        </is>
+          <t>批准</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>这个软件的注册登录界面设计存在明显的用户友好性问题。在成功登录后，用户没有直接明显的退出功能，这可能会导致用户误操作或难以找到退出账号的选项。特别是在最后一张截图中，账号切换功能被隐藏得非常深，需要用户花费额外的时间去查找，这无疑增加了用户的使用难度和不便，严重影响了用户体验。</t>
-        </is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>发出去的帖子和跟贴，或者评论帖子的都没有定位。或者显示附近多少米范围内。
-购买杰伦商品没有发货地址，还有支付订单时，仅仅支持支付宝支付。应该添加货到付款，银行卡付款，微信付款等多渠道付款方式。主页应该添加杰伦旅游一框功能，针对杰伦外出旅游的攻略，或者可以给杰伦发布旅游攻略，或者其他用户发布旅游攻略。</t>
-        </is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>在对帖子进行评论后，用户界面右上角的新消息红色圆点没有出现，表示没有收到新消息的通知。</t>
-        </is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>问题描述：在“杰迷吧-最新”板块中，用户在寻找并评论帖子时遇到了一个评论数显示的问题。当用户已经结束评论后，他们发现帖子评论框上的数字（表示已收到的评论数）并没有立即增加，而是出现了延迟。这意味着即使用户已经发表了评论，评论数的增加并不会立刻反映出来。这可能对用户造成困惑，因为他们可能会误以为自己的评论没有被计入总数。</t>
-        </is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>邮箱注册时，只能输入前面的数字，不能输入后面的“@qq.com”。</t>
-        </is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>在群组设置中，用户试图查看群公告时遇到了问题。当前的设计似乎没有提供查看历史公告的功能，导致用户无法回顾过去的公告内容。这样的设计缺陷可能会影响用户的使用体验，因为他们无法获取过去的重要信息。这种不便可能会对用户的满意度和对应用的整体依赖性产生负面影响。</t>
-        </is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>说可以用手机或邮箱注册，但输入框不接受任何字符输入，所以实际上无法完成邮箱注册。而且同时输入框最右没有一键删除所输入内容的叉号按钮，所以当用户想要一键删除输入内容时会很不方便</t>
-        </is>
+          <t>文档</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>该注册界面存在一个明显的bug，即用户在尝试使用邮箱进行注册时无法完成操作。界面上虽然提供了输入电话号码和邮箱的字段，但似乎并未提供有效的反馈或提示，以告知用户当前操作状态或可能存在的问题。特别是“下一步”按钮目前为灰色，表明用户不能点击进入下一步，这可能是因为系统未能正确识别或处理用户输入的信息。此外，界面背景是黑白的，而注册信息部分却是彩色的，这可能引起用户的视觉混淆，影响用户体验。</t>
-        </is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>该bug描述如下：当用户在一个帖子中进行评论，特别是回复在较高楼层的帖子时，他们可能会遇到一个问题，即在成功评论并收到“评论成功”的通知后，页面会自动跳转到帖子的5楼左右的位置。如果帖子有多层跟帖，这意味着用户必须手动滚动到他们刚刚评论的楼层才能继续阅读帖子内容。这种自动跳转不仅给用户带来了不便，还可能导致用户错过他们感兴趣的帖子内容，从而降低了用户体验。</t>
-        </is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>这个bug描述了一个软件界面中的问题，其中用户在阅读有大量回复的帖子时遇到了不便。具体来说，当用户试图查看帖子的最新更新时，他们必须手动滚动到帖子的底部，而不能直接从当前位置看到最新的回复。这导致用户需要花费额外的时间和精力来获取最新的信息，尤其是在长帖子中。这种设计缺乏类似百度贴吧中的“倒序查看”功能，从而给用户带来了极大的不便。这种情况可能会导致用户感到不耐烦，并可能影响他们对软件的整体满意度和使用体验。</t>
-        </is>
+          <t>第一条</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>当用手机号注册新用户账号的时候，注册时验证码位数过长，不是一般APP的六位数字，影响用户体验。</t>
-        </is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>在创建群公告后，用户开始编辑群公告。然而，当用户尝试查看或编辑时，他们只能看到群公告的内容，而看不到任何关于公告的创建时间或创建者的信息。这可能导致用户无法获取完整的信息，从而影响他们的使用体验。</t>
-        </is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>在用户登录时，界面错误地展示了注册框而非登录框，这与用户的直觉和期望不符。此外，用户在尝试切换账号时也找不到相应的页面选项。</t>
-        </is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>该注册界面的输入限制过于严格，仅允许11位数字输入，不允许包含@符号和额外的数字。这样的设计导致用户在尝试使用其他常见字符或更长的数字组合时无法进行注册，从而极大地影响了用户体验。</t>
-        </is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>注册账号时若输入字符无法显示，将导致无法用邮箱注册</t>
-        </is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>用户注册接收验证码是出现一分钟内不得重复请求验证码。不利于用户快速注册。</t>
-        </is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>机会</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>决定</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>群有</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>申请理由</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>第二次</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>见</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>最终</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>忽略</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>应弹</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>加为好友</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>信息反馈</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>有点</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>分割</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>不要</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>最先</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>遗忘</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>完备</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>未向</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>符合条件</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>错过</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>过该</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>提出</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>相违</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>遭受</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>骚扰</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>一时</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>第三条</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>相符合</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>低下</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>管理混乱</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>完整性</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>有群</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>判定</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>即以</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>信息处理</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>四条</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>多次重复</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>中说</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>改变</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>作出</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>同样</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>视为</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>资源</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>浪费</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>工作效率</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>剩下</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>单用户</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>其对入</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>哪一条</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>附带</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>地以</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>任一</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>群遭</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>啊啊啊</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>应有</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>跟着</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>图一</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>三条</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>符合要求</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
